--- a/doc/ue_uaniminstance.xlsx
+++ b/doc/ue_uaniminstance.xlsx
@@ -1,13 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C92534-3BCB-44E2-BD8D-DA7486DBACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="918" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="EventGragh简介 " sheetId="10" r:id="rId2"/>
+    <sheet name="AnimGraph简介" sheetId="8" r:id="rId3"/>
+    <sheet name="USkeletalMeshComponent" sheetId="3" r:id="rId4"/>
+    <sheet name="UAnimInstance" sheetId="5" r:id="rId5"/>
+    <sheet name="FAnimInstanceProxy" sheetId="2" r:id="rId6"/>
+    <sheet name="状态机" sheetId="6" r:id="rId7"/>
+    <sheet name="UAnimationAsset" sheetId="12" r:id="rId8"/>
+    <sheet name="USkeleton" sheetId="4" r:id="rId9"/>
+    <sheet name="UBlendSpace1D" sheetId="7" r:id="rId10"/>
+    <sheet name="UAnimBlueprintGeneratedClass" sheetId="9" r:id="rId11"/>
+    <sheet name="FAnimationRuntime" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +30,1097 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="270">
+  <si>
+    <t>UAnimInstance</t>
+  </si>
+  <si>
+    <t>动画蓝图的父类，通常我们会继承UAnimInstance生成自己的C++动画类或蓝图类</t>
+  </si>
+  <si>
+    <t>由该类创建驱动动画状态机和各种动画节点的变量，通过这些值控制动画状态机流转，控制动画权重等，</t>
+  </si>
+  <si>
+    <t>UCLASS(transient, Blueprintable)</t>
+  </si>
+  <si>
+    <t>class ANIMATIONSHARING_API UAnimSharingStateInstance : public UAnimInstance</t>
+  </si>
+  <si>
+    <t>class UAnimSharingTransitionInstance : public UAnimInstance</t>
+  </si>
+  <si>
+    <t>class UAnimSharingAdditiveInstance : public UAnimInstance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UCLASS(transient, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blueprintable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面的继承UCLASS标志了Blueprintable，所以在编辑器内可以看到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class CONTROLRIG_API UControlRigAnimInstance : public UAnimInstance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UCLASS(transient, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NotBlueprintable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种继承的设置了NotBlueprintable，所以在编辑器内无法看到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(Blueprintable, ClassGroup=(Rendering, Common), hidecategories=Object, config=Engine, editinlinenew, meta=(BlueprintSpawnableComponent))</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class ENGINE_API </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USkeletalMeshComponent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : public USkinnedMeshComponent, public IInterface_CollisionDataProvider</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// SkeletalMeshComponent is used to create an instance of an animated SkeletalMesh asset.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(transient, Blueprintable, hideCategories=AnimInstance, BlueprintType, meta=(BlueprintThreadSafe), Within=SkeletalMeshComponent)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class ENGINE_API </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UAnimInstance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : public UObject</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器模式下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool USkeletalMeshComponent::InitializeAnimScriptInstance(bool bForceReinit, bool bInDeferRootNodeInitialization)</t>
+  </si>
+  <si>
+    <t>AnimScriptInstance = NewObject&lt;UAnimInstance&gt;(this, AnimClass);</t>
+  </si>
+  <si>
+    <t>里面创建UAnimInstance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在蓝图中增加meshcompotent之后，在内部设置蓝图信息等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** The skeletal mesh used by this component. */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, BlueprintReadOnly, Category="Mesh")</t>
+  </si>
+  <si>
+    <t>class USkeletalMesh* SkeletalMesh;</t>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(config=Engine, hidecategories=Object, MinimalAPI, BlueprintType)</t>
+  </si>
+  <si>
+    <t>class UBlendSpace1D : public UBlendSpaceBase</t>
+  </si>
+  <si>
+    <t>UCLASS(abstract, config=Engine, hidecategories=Object, MinimalAPI, BlueprintType)</t>
+  </si>
+  <si>
+    <t>class UBlendSpaceBase : public UAnimationAsset, public IInterpolationIndexProvider</t>
+  </si>
+  <si>
+    <t>里面包含了变量和动作的配置信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如配置Speed参数，然后根据其不同的区间值设置不同的动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Sample animation data **/</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, Category=BlendSamples)</t>
+  </si>
+  <si>
+    <t>TArray&lt;struct FBlendSample&gt; SampleData;</t>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Sample data */</t>
+  </si>
+  <si>
+    <t>USTRUCT()</t>
+  </si>
+  <si>
+    <t>struct FBlendSample</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>GENERATED_USTRUCT_BODY()</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, Category=BlendSample)</t>
+  </si>
+  <si>
+    <t>class UAnimSequence* Animation;</t>
+  </si>
+  <si>
+    <t>//blend 0-&gt;x, blend 1-&gt;y, blend 2-&gt;z</t>
+  </si>
+  <si>
+    <t>FVector SampleValue;</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, Category = BlendSample, meta=(UIMin="0.01", UIMax="2.0", ClampMin="0.01", ClampMax="64.0"))</t>
+  </si>
+  <si>
+    <t>float RateScale;</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITORONLY_DATA</t>
+  </si>
+  <si>
+    <t>uint8 bSnapToGrid : 1;</t>
+  </si>
+  <si>
+    <t>UPROPERTY(transient)</t>
+  </si>
+  <si>
+    <t>uint8 bIsValid : 1;</t>
+  </si>
+  <si>
+    <t>// Cache the samples marker data counter so that we can track if it changes and revalidate the blendspace</t>
+  </si>
+  <si>
+    <t>int32 CachedMarkerDataUpdateCounter;</t>
+  </si>
+  <si>
+    <t>结构体信息，对照右边图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的动作列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Blend Parameters for each axis. **/</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, Category = BlendParametersTest)</t>
+  </si>
+  <si>
+    <t>struct FBlendParameter BlendParameters[3];</t>
+  </si>
+  <si>
+    <t>配置的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Input interpolation parameter for all 3 axis, for each axis input, decide how you'd like to interpolate input to*/</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, Category = InputInterpolation)</t>
+  </si>
+  <si>
+    <t>FInterpolationParameter</t>
+  </si>
+  <si>
+    <t>InterpolationParam[3];</t>
+  </si>
+  <si>
+    <t>这个类里面可以配置根据变量的数据区间段，播放不同动作的配置信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS()</t>
+  </si>
+  <si>
+    <t>class ENGINE_API UAnimBlueprintGeneratedClass : public UBlueprintGeneratedClass, public IAnimClassInterface</t>
+  </si>
+  <si>
+    <t>可以创建蓝图，选中该类和派生类为父类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面默认就包含了EventGragh和AnimGragh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后就可以编辑自己的动画信息了e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般就可以在EventGraph里面监听事件进行处理了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听Update事件，可以是默认的也可以自定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般情况下的事件为：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Blueprint BeginPlay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Blueprint Initialize Animation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Blueprint Update Anamiation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等等，也可以自定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑Event Graph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑AnimGraph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般需要配合一个简单的状态机机制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAnimGraphNode_Base</t>
+  </si>
+  <si>
+    <t>基类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>派生类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(Abstract)</t>
+  </si>
+  <si>
+    <t>class ANIMGRAPH_API UAnimGraphNode_StateMachineBase : public UAnimGraphNode_Base</t>
+  </si>
+  <si>
+    <t>编辑动画：涉及大量的AnimGraphNode类，在蓝图中进行编辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(MinimalAPI)</t>
+  </si>
+  <si>
+    <t>class UAnimGraphNode_StateMachine : public UAnimGraphNode_StateMachineBase</t>
+  </si>
+  <si>
+    <t>GENERATED_UCLASS_BODY()</t>
+  </si>
+  <si>
+    <t>// Runtime state machine representation (empty; populated during compilation)</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, Category=Settings)</t>
+  </si>
+  <si>
+    <t>FAnimNode_StateMachine Node;</t>
+  </si>
+  <si>
+    <t>// UAnimGraphNode_StateMachineBase interface</t>
+  </si>
+  <si>
+    <t>virtual FAnimNode_StateMachine&amp; GetNode() override { return Node; }</t>
+  </si>
+  <si>
+    <t>// End of UAnimGraphNode_StateMachineBase interface</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>蓝图里面编辑的状态机q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// State machine node</t>
+  </si>
+  <si>
+    <t>struct ENGINE_API FAnimNode_StateMachine : public FAnimNode_Base</t>
+  </si>
+  <si>
+    <t>动画动态机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实的状态机处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在独立线程进行调度，非主线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAnimNode_StateMachine::Initialize_AnyThread(const FAnimationInitializeContext&amp; Context)</t>
+  </si>
+  <si>
+    <t>void FAnimNode_Root::Initialize_AnyThread(const FAnimationInitializeContext&amp; Context)</t>
+  </si>
+  <si>
+    <t>void FAnimInstanceProxy::InitializeRootNode_WithRoot(FAnimNode_Base* InRootNode)</t>
+  </si>
+  <si>
+    <t>void FAnimInstanceProxy::InitializeRootNode(bool bInDeferRootNodeInitialization)</t>
+  </si>
+  <si>
+    <t>void UAnimInstance::InitializeAnimation(bool bInDeferRootNodeInitialization)</t>
+  </si>
+  <si>
+    <t>!!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void USkeletalMeshComponent::InitAnim(bool bForceReinit)</t>
+  </si>
+  <si>
+    <t>void USkeletalMeshComponent::OnRegister()</t>
+  </si>
+  <si>
+    <t>void UActorComponent::ExecuteRegisterEvents(FRegisterComponentContext* Context)</t>
+  </si>
+  <si>
+    <t>void UActorComponent::RegisterComponentWithWorld(UWorld* InWorld, FRegisterComponentContext* Context)</t>
+  </si>
+  <si>
+    <t>bool AActor::IncrementalRegisterComponents(int32 NumComponentsToRegister, FRegisterComponentContext* Context)</t>
+  </si>
+  <si>
+    <t>void AActor::RegisterAllComponents()</t>
+  </si>
+  <si>
+    <t>void AActor::PostSpawnInitialize(FTransform const&amp; UserSpawnTransform, AActor* InOwner, APawn* InInstigator, bool bRemoteOwned, bool bNoFail, bool bDeferConstruction)</t>
+  </si>
+  <si>
+    <t>AActor* UWorld::SpawnActor( UClass* Class, FTransform const* UserTransformPtr, const FActorSpawnParameters&amp; SpawnParameters )</t>
+  </si>
+  <si>
+    <t>从Spaen一个Actor开始，就开始初始化其所有Componment，最后到SkeletalMeshComponent，然后到AnimInstance，然后到状态机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICK调度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FEngineLoop::Tick()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEngine-&gt;Tick(FApp::GetDeltaTime(), bIdleMode);</t>
+  </si>
+  <si>
+    <t>void UGameEngine::Tick( float DeltaSeconds, bool bIdleMode )</t>
+  </si>
+  <si>
+    <t>Context.World()-&gt;Tick( LEVELTICK_All, DeltaSeconds );</t>
+  </si>
+  <si>
+    <t>void UWorld::Tick( ELevelTick TickType, float DeltaSeconds )</t>
+  </si>
+  <si>
+    <t>FTickTaskManagerInterface::Get().RunTickGroup(Group, bBlockTillComplete);</t>
+  </si>
+  <si>
+    <t>void USkeletalMeshComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
+  </si>
+  <si>
+    <t>void USkinnedMeshComponent::TickComponent(float DeltaTime, enum ELevelTick TickType, FActorComponentTickFunction *ThisTickFunction)</t>
+  </si>
+  <si>
+    <t>Super::TickComponent(DeltaTime, TickType, ThisTickFunction);</t>
+  </si>
+  <si>
+    <t>TickPose(DeltaTime, false);</t>
+  </si>
+  <si>
+    <t>void USkeletalMeshComponent::TickPose(float DeltaTime, bool bNeedsValidRootMotion)</t>
+  </si>
+  <si>
+    <t>TickAnimation(DeltaTimeForTick, bNeedsValidRootMotion);</t>
+  </si>
+  <si>
+    <t>void USkeletalMeshComponent::TickAnimation(float DeltaTime, bool bNeedsValidRootMotion)</t>
+  </si>
+  <si>
+    <t>这个里面主要的还是调度蓝图的Event Update Animate处理，如果蓝图里面监听了这个事件就进行处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程调度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步线程调度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">void USkeletalMeshComponent::ParallelAnimationEvaluation() </t>
+  </si>
+  <si>
+    <t>PerformAnimationProcessing(AnimEvaluationContext.SkeletalMesh, AnimEvaluationContext.AnimInstance, AnimEvaluationContext.bDoEvaluation, AnimEvaluationContext.ComponentSpaceTransforms, AnimEvaluationContext.BoneSpaceTransforms, AnimEvaluationContext.RootBoneTranslation, AnimEvaluationContext.Curve, AnimEvaluationContext.CustomAttributes);</t>
+  </si>
+  <si>
+    <t>void USkeletalMeshComponent::PerformAnimationProcessing(const USkeletalMesh* InSkeletalMesh, UAnimInstance* InAnimInstance, bool bInDoEvaluation, TArray&lt;FTransform&gt;&amp; OutSpaceBases, TArray&lt;FTransform&gt;&amp; OutBoneSpaceTransforms, FVector&amp; OutRootBoneTranslation, FBlendedHeapCurve&amp; OutCurve, FHeapCustomAttributes&amp; OutAttributes)</t>
+  </si>
+  <si>
+    <t>InAnimInstance-&gt;ParallelUpdateAnimation();</t>
+  </si>
+  <si>
+    <t>void UAnimInstance::ParallelUpdateAnimation()</t>
+  </si>
+  <si>
+    <t>各种计算动画的处理都在这个地方处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色身上的组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换时的卸载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UEngine::LoadMap( FWorldContext&amp; WorldContext, FURL URL, class UPendingNetGame* Pending, FString&amp; Error )</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;DestroyActor(Player-&gt;PlayerController, true);</t>
+  </si>
+  <si>
+    <t>销毁当前场景的Actor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UWorld::DestroyActor( AActor* ThisActor, bool bNetForce, bool bShouldModifyLevel )</t>
+  </si>
+  <si>
+    <t>ThisActor-&gt;UnregisterAllComponents();</t>
+  </si>
+  <si>
+    <t>移除组件--对主角自己来说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！其他玩家怎么做了？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AActor::UnregisterAllComponents(const bool bForReregister)</t>
+  </si>
+  <si>
+    <t>for(UActorComponent* Component : Components)</t>
+  </si>
+  <si>
+    <t>if( Component-&gt;IsRegistered() &amp;&amp; (!bForReregister || Component-&gt;AllowReregistration())) // In some cases unregistering one component can unregister another, so we do a check here to avoid trying twice</t>
+  </si>
+  <si>
+    <t>Component-&gt;UnregisterComponent();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>取消注册所有组件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UActorComponent::UnregisterComponent()</t>
+  </si>
+  <si>
+    <t>ExecuteUnregisterEvents();</t>
+  </si>
+  <si>
+    <t>RegisterAllComponentTickFunctions(false);</t>
+  </si>
+  <si>
+    <t>移除所有的东西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UActorComponent::ExecuteUnregisterEvents()</t>
+  </si>
+  <si>
+    <t>DestroyPhysicsState();</t>
+  </si>
+  <si>
+    <t>OnUnregister();</t>
+  </si>
+  <si>
+    <t>取消注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void USkeletalMeshComponent::OnUnregister()</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;CleanupWorld();</t>
+  </si>
+  <si>
+    <t>这个会清掉各个Level里面的Actor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他玩家的清楚是后续在Level里清除的：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::CleanupWorld(bool bSessionEnded, bool bCleanupResources, UWorld* NewWorld)</t>
+  </si>
+  <si>
+    <t>void UWorld::ClearWorldComponents()</t>
+  </si>
+  <si>
+    <t>遍历所有Level，执行Level的清理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ULevel::ClearLevelComponents()</t>
+  </si>
+  <si>
+    <t>遍历Level里面的所有Actor，执行其Actor-&gt;UnregisterAllComponents();</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TICK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">主要看非编辑器模式 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor-&gt;PostSpawnInitialize(UserTransform, SpawnParameters.Owner, SpawnParameters.Instigator, SpawnParameters.IsRemoteOwned(), SpawnParameters.bNoFail, SpawnParameters.bDeferConstruction);</t>
+  </si>
+  <si>
+    <t>RegisterAllComponents();</t>
+  </si>
+  <si>
+    <t>Component-&gt;RegisterComponentWithWorld(World, Context);</t>
+  </si>
+  <si>
+    <t>遍历找到所有的Componets，挨个执行下面的逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecuteRegisterEvents(Context);</t>
+  </si>
+  <si>
+    <t>！！！Actor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">！！！SkeletalMeshComponent </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！World</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitAnim(true);</t>
+  </si>
+  <si>
+    <t>New出来一个蓝图类对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimClass是配置的蓝图资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图类的初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetProxyOnGameThread&lt;FAnimInstanceProxy&gt;().Initialize(this);</t>
+  </si>
+  <si>
+    <t>Proxy初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlueprintInitializeAnimation</t>
+  </si>
+  <si>
+    <t>触发蓝图的Event Blue Print Init Anamation事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (AnimScriptInstance)</t>
+  </si>
+  <si>
+    <t>AnimScriptInstance-&gt;UninitializeAnimation();</t>
+  </si>
+  <si>
+    <t>void UAnimInstance::UninitializeAnimation()</t>
+  </si>
+  <si>
+    <t>GetProxyOnGameThread&lt;FAnimInstanceProxy&gt;().Uninitialize(this);</t>
+  </si>
+  <si>
+    <t>触发PROXY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UAnimInstance::BeginDestroy()</t>
+  </si>
+  <si>
+    <t>PROXY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁PROXY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UAnimInstance::PostInitProperties()</t>
+  </si>
+  <si>
+    <t>if(AnimInstanceProxy == nullptr)</t>
+  </si>
+  <si>
+    <t>AnimInstanceProxy = CreateAnimInstanceProxy();</t>
+  </si>
+  <si>
+    <t>check(AnimInstanceProxy != nullptr);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">创建PROXY </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestroyAnimInstanceProxy(AnimInstanceProxy);</t>
+  </si>
+  <si>
+    <t>FAnimInstanceProxy</t>
+  </si>
+  <si>
+    <t>依附于UAnimInstance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>依附于AnimInstance，创建和销毁时机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牵扯到主线程和异步线程交互的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在异步线程进行计算，主线程进行其他处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetProxyOnGameThread&lt;FAnimInstanceProxy&gt;().PostEvaluate(this);</t>
+  </si>
+  <si>
+    <t>类似这个调用，在主线程里面掉，内部会阻塞的等待异步线程计算完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InAnimInstance-&gt;GetSkelMeshComponent()-&gt;HandleExistingParallelEvaluationTask(bBlockOnTask, bPerformPostAnimEvaluation);</t>
+  </si>
+  <si>
+    <t>主线程阻塞等待事件完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步更新动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在单独线程进行运算，而不是主线程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetProxyOnAnyThread&lt;FAnimInstanceProxy&gt;().UpdateAnimation();</t>
+  </si>
+  <si>
+    <t>这个在其他线程调用，里面不会阻塞，只有主线程调度才阻塞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void USkeletalMeshComponent::PerformAnimationProcessing(const USkeletalMesh* InSkeletalMesh, UAnimInstance* InAnimInstance, bool bInDoEvaluation, TArray&lt;FTransform&gt;&amp; OutSpaceBases, TArray&lt;FTra</t>
+  </si>
+  <si>
+    <t>蓝图类进行异步更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAnimInstanceProxy::UpdateAnimation()</t>
+  </si>
+  <si>
+    <t>就是AnimInstance和其状态机等交互的一个接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FAnimNode_StateMachine::Update_AnyThread(const FAnimationUpdateContext&amp; Context)</t>
+  </si>
+  <si>
+    <t>中间一系列的调度，最终到了状态机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新调度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAnimationAsset是所有动画资源的父类类型</t>
+  </si>
+  <si>
+    <t>UCLASS(abstract, BlueprintType)</t>
+  </si>
+  <si>
+    <t>UCLASS(MinimalAPI, BlueprintType)</t>
+  </si>
+  <si>
+    <t>UCLASS(config=Engine, hidecategories=UObject, MinimalAPI, BlueprintType)</t>
+  </si>
+  <si>
+    <t>UCLASS(config=Engine, hidecategories=(UObject, Length), BlueprintType)</t>
+  </si>
+  <si>
+    <t>UCLASS(abstract, MinimalAPI)</t>
+  </si>
+  <si>
+    <t>UCLASS(config=Engine, hidecategories=(UObject, Length), MinimalAPI, BlueprintType)</t>
+  </si>
+  <si>
+    <t>蒙太奇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class UPoseAsset : public UAnimationAsset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以曲线权重混合的资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class UBlendSpaceBase : public UAnimationAsset, public IInterpolationIndexProvider</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class ENGINE_API UAnimSequenceBase : public UAnimationAsset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class UAnimStreamable : public UAnimSequenceBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以流式播放而不是完全加载的动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class ENGINE_API UAnimSequence : public UAnimSequenceBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个关键帧动画序列。包含许多磁道的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class UAnimCompositeBase : public UAnimSequenceBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class UAnimComposite : public UAnimCompositeBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>class UAnimMontage : public UAnimCompositeBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧动画序列的基类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是根据事件来变化，主要包含曲线变换和通知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画合成的抽象基础类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一些情况下，可能面临把基础序列动画合成为一个；这里的合成仅仅是追加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由多个序列组成的动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">动画蒙太奇（Animation Montage）（简称 蒙太奇）提供了一种直接通过蓝图或C++代码控制动画资源的途径。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你可以使用动画蒙太奇将多个不同动画序列 组合成一个资源。你可以将该资源分成若干 片段（Sections），选择播放其中的个别片段，或者选择播放所有片段。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可以触发蒙太奇中的 事件（Events） 以执行各种本地或复制任务，例如播放Sound Cue或粒子效果，更改玩家数值（如弹药数量）等，甚至在动画启用“根运动”时复制联网游戏中的根运动 。</t>
+  </si>
+  <si>
+    <t>可以根据参数融合动画；混合控件动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其子类分别是UBlendSpace，UBlendSpace1D。混合空间（Blend Space） 允许根据两个输入的值混合动画。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要根据一个输入在两个动画之间实现简单混合， 可以使用动画蓝图 中提供的一个标准 混合节点 。混合空间提供的方法是根据多个值（目前仅限于两个） 在多个动画之间进行更复杂的混合</t>
+  </si>
+  <si>
+    <t>默认是多线程更新的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;struct FAnimMontageInstance*&gt; MontageInstances;</t>
+  </si>
+  <si>
+    <t>蒙太奇动画列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF323232"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +1143,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +1166,586 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>294763</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D78E5CA-A3C8-2E2B-C0D5-60C9B8D44CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="2876550"/>
+          <a:ext cx="4095238" cy="2695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466098</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F303634-FB35-E87A-D9EA-E92DB0ECF3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791450" y="5915025"/>
+          <a:ext cx="5019048" cy="4095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E5F072-C7C0-63EA-C85F-E5DADDEA70AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9334500" y="133350"/>
+          <a:ext cx="4400550" cy="2397541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>646720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>75836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BF7039-E65F-4536-8668-D70814C04BE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="1685925"/>
+          <a:ext cx="7838095" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>599140</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>18776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CCB4E1-D4AA-0A34-F39F-56E1E3E72BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="3438525"/>
+          <a:ext cx="7476190" cy="2190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>8317</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065A75A7-BCC1-39C7-BC44-D1938E45A57D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="5772150"/>
+          <a:ext cx="9666667" cy="4085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>456171</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543D93EF-482A-0D6D-DA58-08D71E1E6FBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="8229600"/>
+          <a:ext cx="8228571" cy="2733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>674995</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE10BA2-1AD3-C359-F086-6364DB7B6B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325100" y="2228850"/>
+          <a:ext cx="10238095" cy="4495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>56284</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C99B48-4DFD-1970-FAA1-2B91823EBE18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="4800600"/>
+          <a:ext cx="6923809" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>198259</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>27739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03DBFE9-35A7-90C4-6E50-2A01695D104C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10077450" y="6372225"/>
+          <a:ext cx="14123809" cy="6685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>26832</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1E2EDC-10B9-0567-F116-A8A3D38A08EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12830175" y="1000125"/>
+          <a:ext cx="13942857" cy="7228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>579407</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>180123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6EFF97-8F67-45F3-5FE5-936A308181D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953750" y="12182475"/>
+          <a:ext cx="12942857" cy="6819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2010,2075 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:G42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA9E222-914A-4888-AF56-6D649D627CA8}">
+  <dimension ref="A2:Q83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="Q67" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F66CA-79B6-45CE-89FC-B1FBB3995FBD}">
+  <dimension ref="C7:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E773E-F335-4AE9-A85B-75303B67174E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE73D154-4280-43AF-9012-19CBA4B42CE2}">
+  <dimension ref="A3:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74F0519-160F-4116-A6C6-CED54AE094DD}">
+  <dimension ref="A4:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD925E5-3F77-4F86-AA4F-5D9FD46E051F}">
+  <dimension ref="B2:R102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="S71" sqref="S71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D68" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C73" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D75" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D77" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>156</v>
+      </c>
+      <c r="N81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>159</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>160</v>
+      </c>
+      <c r="O85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D93" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D99" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C89AFDB-5E7B-4ABF-88CB-B0D0B550937E}">
+  <dimension ref="B2:P61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="D25" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="D28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+      <c r="C45" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB4E04C-D395-4561-8B79-7A4719759A6F}">
+  <dimension ref="B2:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAB04C0-52FC-4153-ADC2-A61DB4F71D04}">
+  <dimension ref="B3:R59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+      <c r="C50" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+      <c r="C52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5584C075-FA3D-4757-9075-A8D88DAC4EC7}">
+  <dimension ref="B3:L44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E19" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE486BB5-A4EA-41C8-B98D-D739ADAACE92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_uaniminstance.xlsx
+++ b/doc/ue_uaniminstance.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C92534-3BCB-44E2-BD8D-DA7486DBACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="918" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="918"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="291">
   <si>
     <t>UAnimInstance</t>
   </si>
@@ -1059,11 +1058,84 @@
     <t>蒙太奇动画列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>蓝图事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Executed when the Animation is initialized */</t>
+  </si>
+  <si>
+    <t>UFUNCTION(BlueprintImplementableEvent)</t>
+  </si>
+  <si>
+    <t>void BlueprintInitializeAnimation();</t>
+  </si>
+  <si>
+    <t>/** Executed when the Animation is updated */</t>
+  </si>
+  <si>
+    <t>void BlueprintUpdateAnimation(float DeltaTimeX);</t>
+  </si>
+  <si>
+    <t>C++可重写的事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// the below functions are the native overrides for each phase</t>
+  </si>
+  <si>
+    <t>// Native initialization override point</t>
+  </si>
+  <si>
+    <t>virtual void NativeInitializeAnimation();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Native update override point. It is usually a good idea to simply gather data in this step and </t>
+  </si>
+  <si>
+    <t>// for the bulk of the work to be done in NativeUpdateAnimation.</t>
+  </si>
+  <si>
+    <t>virtual void NativeUpdateAnimation(float DeltaSeconds);</t>
+  </si>
+  <si>
+    <t>复杂的Event逻辑，可以在C++层继承UAnimInstance后，重写对应的Native方法，而不是在蓝图里面处理Blueprint事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在自己的 AnimInstance 类中指定自己的 Proxy 继承类，并写到 Proxy 的 UpdateAnimation 中，这样引擎就能把动画的 Update 以及 Evaluate 都放到 Proxy 上通过其他工作线程并行执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Track</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Segment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下图的1就是Track</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下图的2就是segment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1216,16 +1288,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>466098</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>66163</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>37473</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>75688</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1248,7 +1320,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7791450" y="5915025"/>
+          <a:off x="9420225" y="5743575"/>
           <a:ext cx="5019048" cy="4095238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1315,6 +1387,44 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>112845</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>180777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="10172700"/>
+          <a:ext cx="11638095" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2010,11 +2120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2156,6 +2266,54 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="3"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="3"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="3"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="3"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E55" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2166,10 +2324,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA9E222-914A-4888-AF56-6D649D627CA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
@@ -2496,7 +2654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F66CA-79B6-45CE-89FC-B1FBB3995FBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C7:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2523,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E773E-F335-4AE9-A85B-75303B67174E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2538,11 +2696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE73D154-4280-43AF-9012-19CBA4B42CE2}">
-  <dimension ref="A3:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2598,18 +2756,102 @@
         <v>78</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74F0519-160F-4116-A6C6-CED54AE094DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -2696,10 +2938,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD925E5-3F77-4F86-AA4F-5D9FD46E051F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R102"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S71" sqref="S71"/>
     </sheetView>
   </sheetViews>
@@ -3180,10 +3422,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C89AFDB-5E7B-4ABF-88CB-B0D0B550937E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -3454,7 +3696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB4E04C-D395-4561-8B79-7A4719759A6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3601,7 +3843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAB04C0-52FC-4153-ADC2-A61DB4F71D04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R59"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -3884,11 +4126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5584C075-FA3D-4757-9075-A8D88DAC4EC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4069,7 +4311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE486BB5-A4EA-41C8-B98D-D739ADAACE92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
